--- a/biology/Botanique/Parc_Tournay-Solvay/Parc_Tournay-Solvay.xlsx
+++ b/biology/Botanique/Parc_Tournay-Solvay/Parc_Tournay-Solvay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Tournay-Solvay est un parc situé dans la commune de Watermael-Boitsfort à  Bruxelles en Belgique. Il se situe entre la chaussée de la Hulpe et la ligne de chemin de fer Bruxelles-Namur.  Ce parc paysager résulte d'aménagements successifs réalisés par la famille Solvay à la fin du XIXe siècle et au début du XXe siècle. 
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1878, Alfred Solvay, frère et associé de l'industriel Ernest Solvay fait construire une maison de campagne sur le site. Les architectes Constant Bosmans et Henri Vandeveld érigent un bâtiment de style néo-Renaissance flamande, avec une alternance de pierres blanches et de briques rouges.
 Vers 1905, l'architecte Jules Brunfaut  y ajoute une double tour, un grand arc en berceau au rez-de-chaussée et une loggia
@@ -520,11 +534,6 @@
 Après le décès de Thérèse Tournay-Solvay, la fille d'Alfred Solvay, la propriété est vendue par ses héritiers  à une société immobilière qui souhaite construire des bureaux. Le projet n'ayant pas abouti, la propriété reste à l'abandon jusqu'à son rachat par la Région bruxelloise en 1980.  Elle est ouverte au public l'année suivante. En 1982, le château est ravagé par un incendie d'origine criminelle, qui le réduit, faute de réaction des pouvoirs publics, à l'état de ruine. 
 La roseraie et le jardin potager-fruitier sont restaurés par l'architecte-paysagiste Jacques Boulanger-Français en 1985.
 Le parc a été intégré dans la Promenade verte.
-La restauration du Château Tournay-Solvay
-À l'époque de l'incendie (1982) le bâtiment est encore récupérable moyennant d'importantes dépenses qui ne seront hélas consenties, ni par le public, ni par le privé.
-On s'accommodera dès lors, au niveau de la commune de Watermael-Boitsfort, d'un lent mais continu pourrissement des lieux, qui culmine en 2012 avec l'encerclement, toujours plus étendu, du Château par des barrières Nadar, ceci afin de sécuriser les lieux des chutes éventuelles de pierres, morceaux etc.
-Des travaux de conservation et de stabilisation ont finalement été initiés par la régie foncière régionale, dès l'été 2014, sous l'impulsion du Ministre-Président de la Région Bruxelloise, Rudi Vervoort. En 2015, les travaux de sauvegarde structuraux ont été réalisés par AAC Architecture. La mission d'auteur de projet visant la restauration complète du château a par ailleurs été confiée à l'architecte Francis Metzger, connu notamment pour la restauration d'un autre fleuron de l'architecture néo-renaissance flamande à Watermael-Boitsfort, le Château Charle-Albert.
-La région Bruxelles-Capitale annonce que les débuts des travaux sont prévus d’ici le second semestre 2019 et qu' un budget de 4,5 millions d’euros a été dégagé[1]. Il est prévu d'en faire un centre interuniversitaire en physique par l'UCLouvain, l'université libre de Bruxelles, KU Leuven et la Vrije Universiteit Brussel en physique théorique. Le château devrait faire rayonner les travaux de Robert Brout, du prix Nobel de physique François Englert et de Georges Lemaître [2].
 </t>
         </is>
       </c>
@@ -550,10 +559,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La restauration du Château Tournay-Solvay</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'époque de l'incendie (1982) le bâtiment est encore récupérable moyennant d'importantes dépenses qui ne seront hélas consenties, ni par le public, ni par le privé.
+On s'accommodera dès lors, au niveau de la commune de Watermael-Boitsfort, d'un lent mais continu pourrissement des lieux, qui culmine en 2012 avec l'encerclement, toujours plus étendu, du Château par des barrières Nadar, ceci afin de sécuriser les lieux des chutes éventuelles de pierres, morceaux etc.
+Des travaux de conservation et de stabilisation ont finalement été initiés par la régie foncière régionale, dès l'été 2014, sous l'impulsion du Ministre-Président de la Région Bruxelloise, Rudi Vervoort. En 2015, les travaux de sauvegarde structuraux ont été réalisés par AAC Architecture. La mission d'auteur de projet visant la restauration complète du château a par ailleurs été confiée à l'architecte Francis Metzger, connu notamment pour la restauration d'un autre fleuron de l'architecture néo-renaissance flamande à Watermael-Boitsfort, le Château Charle-Albert.
+La région Bruxelles-Capitale annonce que les débuts des travaux sont prévus d’ici le second semestre 2019 et qu' un budget de 4,5 millions d’euros a été dégagé. Il est prévu d'en faire un centre interuniversitaire en physique par l'UCLouvain, l'université libre de Bruxelles, KU Leuven et la Vrije Universiteit Brussel en physique théorique. Le château devrait faire rayonner les travaux de Robert Brout, du prix Nobel de physique François Englert et de Georges Lemaître .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parc_Tournay-Solvay</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_Tournay-Solvay</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Édifices et monuments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>À droite de l'entrée principale, les anciennes écuries du château, construites par Georges Collin en même temps que la conciergerie en 1920, ont été restaurées en 1992 et abritent aujourd’hui le Centre régional d’initiation à l’écologie, animé par l’asbl Tournesol-Zonnebloem.
 Les ruines du château.
